--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A293D5-7D6A-4B1E-915A-EDE3CA62D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15B48A-D71B-42B7-B976-84B246595E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>DayNite</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>~StartYear</t>
   </si>
   <si>
@@ -1223,7 +1220,10 @@
     <t>FLO~3</t>
   </si>
   <si>
-    <t>ModelPL</t>
+    <t>ModelNL</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -4638,7 +4638,7 @@
   <dimension ref="B2:N63"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4659,10 +4659,10 @@
     </row>
     <row r="4" spans="2:14" ht="18">
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -4713,754 +4713,754 @@
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1">
       <c r="B8" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="28"/>
       <c r="N8" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
       <c r="E9" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="N9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1">
       <c r="E10" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="N10" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1">
       <c r="E11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="N11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1">
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="N12" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1">
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="N13" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1">
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="N14" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1">
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="N15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1">
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="N16" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="5:14" ht="15.75" customHeight="1">
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="N17" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="5:14" ht="15.75" customHeight="1">
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="N18" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="5:14" ht="15.75" customHeight="1">
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="N19" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="5:14" ht="15.75" customHeight="1">
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="N20" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="5:14" ht="15.75" customHeight="1">
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="N21" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="5:14" ht="15.75" customHeight="1">
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="N22" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="5:14" ht="15.75" customHeight="1">
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="N23" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="5:14" ht="15.75" customHeight="1">
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="N24" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="5:14" ht="15.75" customHeight="1">
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="N25" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="5:14" ht="15.75" customHeight="1">
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="N26" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="5:14" ht="15.75" customHeight="1">
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="N27" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="5:14" ht="15.75" customHeight="1">
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="N28" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="5:14" ht="15.75" customHeight="1">
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
       <c r="N29" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="5:14" ht="15.75" customHeight="1">
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="N30" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="5:14" ht="15.75" customHeight="1">
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="N31" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="5:14" ht="15.75" customHeight="1">
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
       <c r="N32" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="5:14" ht="15.75" customHeight="1">
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="N33" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="5:14" ht="15.75" customHeight="1">
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
       <c r="N34" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="5:14" ht="15.75" customHeight="1">
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="N35" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="5:14" ht="15.75" customHeight="1">
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="N36" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="5:14" ht="15.75" customHeight="1">
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="N37" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="5:14" ht="15.75" customHeight="1">
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="N38" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="5:14" ht="15.75" customHeight="1">
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="N39" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="5:14" ht="15.75" customHeight="1">
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
       <c r="N40" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="5:14" ht="15.75" customHeight="1">
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="N41" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="5:14" ht="15.75" customHeight="1">
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
       <c r="N42" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="5:14" ht="15.75" customHeight="1">
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
       <c r="N43" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="5:14" ht="15.75" customHeight="1">
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="N44" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="5:14" ht="15.75" customHeight="1">
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
       <c r="N45" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="5:14" ht="15.75" customHeight="1">
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
       <c r="N46" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="5:14" ht="15.75" customHeight="1">
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="N47" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="5:14" ht="15.75" customHeight="1">
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
       <c r="N48" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="5:14" ht="15.75" customHeight="1">
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="N49" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="5:14" ht="15.75" customHeight="1">
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
       <c r="N50" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="5:14" ht="15.75" customHeight="1">
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
       <c r="N51" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="5:14" ht="15.75" customHeight="1">
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
       <c r="L52" s="28"/>
       <c r="N52" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="5:14" ht="15.75" customHeight="1">
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
       <c r="L53" s="27"/>
       <c r="N53" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="5:14" ht="15.75" customHeight="1">
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
       <c r="N54" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="5:14" ht="15.75" customHeight="1">
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
       <c r="L55" s="27"/>
       <c r="N55" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="5:14" ht="15.75" customHeight="1">
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
       <c r="N56" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="5:14" ht="15.75" customHeight="1">
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
       <c r="N57" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="5:14" ht="15.75" customHeight="1">
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
       <c r="N58" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="5:14" ht="15.75" customHeight="1">
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
       <c r="N59" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="5:14" ht="15.75" customHeight="1">
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
       <c r="L60" s="28"/>
       <c r="N60" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="5:14" ht="15.75" customHeight="1">
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
       <c r="G61" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J61" s="27"/>
       <c r="K61" s="27"/>
       <c r="L61" s="27"/>
       <c r="N61" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="5:14" ht="15.75" customHeight="1">
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
       <c r="L62" s="28"/>
       <c r="N62" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="5:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="27"/>
       <c r="N63" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5495,12 +5495,12 @@
     </row>
     <row r="4" spans="2:7" ht="15">
       <c r="B4" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
@@ -5510,28 +5510,28 @@
     </row>
     <row r="13" spans="2:7" ht="15">
       <c r="B13" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1">
       <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
@@ -5626,7 +5626,7 @@
     <row r="3" spans="2:11" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5637,32 +5637,32 @@
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="20">
         <v>0</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
       <c r="B12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="16">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5734,49 +5734,49 @@
     <row r="15" spans="2:11" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>5555</v>
       </c>
       <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="21">
         <v>9999</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1"/>
@@ -5795,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5814,44 +5814,44 @@
   <sheetData>
     <row r="3" spans="2:17" ht="18">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="31"/>
@@ -5864,7 +5864,7 @@
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="32"/>
@@ -5877,11 +5877,11 @@
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G9" s="42">
         <v>52.142857142857146</v>
@@ -5890,11 +5890,11 @@
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1">
       <c r="B10" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -5905,11 +5905,11 @@
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
       <c r="B11" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -5920,7 +5920,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="12"/>
@@ -5928,16 +5928,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
       <c r="B12" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -5948,7 +5948,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="22"/>
@@ -5956,16 +5956,16 @@
         <v>0.3</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
       <c r="B13" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -5976,11 +5976,11 @@
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
       <c r="B14" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -5991,11 +5991,11 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
       <c r="B15" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -6007,11 +6007,11 @@
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1">
       <c r="B16" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -6022,11 +6022,11 @@
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1">
       <c r="B17" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -6037,11 +6037,11 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1">
       <c r="B18" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -6052,11 +6052,11 @@
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1">
       <c r="B19" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -6067,11 +6067,11 @@
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
       <c r="B20" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -6082,11 +6082,11 @@
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1">
       <c r="B21" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -6097,11 +6097,11 @@
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1">
       <c r="B22" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
@@ -6112,11 +6112,11 @@
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1">
       <c r="B23" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -6127,11 +6127,11 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
       <c r="B24" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -6142,11 +6142,11 @@
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
       <c r="B25" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
@@ -6157,11 +6157,11 @@
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
       <c r="B26" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -6172,11 +6172,11 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
       <c r="B27" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -6187,11 +6187,11 @@
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
       <c r="B28" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
@@ -6202,11 +6202,11 @@
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1">
       <c r="B29" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
@@ -6217,11 +6217,11 @@
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1">
       <c r="B30" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
@@ -6232,11 +6232,11 @@
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
       <c r="B31" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -6247,11 +6247,11 @@
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
       <c r="B32" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
@@ -6262,11 +6262,11 @@
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1">
       <c r="B33" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -6277,11 +6277,11 @@
     </row>
     <row r="34" spans="2:8" ht="15.75" customHeight="1">
       <c r="B34" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
@@ -6292,11 +6292,11 @@
     </row>
     <row r="35" spans="2:8" ht="15.75" customHeight="1">
       <c r="B35" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -6307,11 +6307,11 @@
     </row>
     <row r="36" spans="2:8" ht="15.75" customHeight="1">
       <c r="B36" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -6322,11 +6322,11 @@
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1">
       <c r="B37" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -6337,11 +6337,11 @@
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1">
       <c r="B38" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
@@ -6352,11 +6352,11 @@
     </row>
     <row r="39" spans="2:8" ht="15.75" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -6367,11 +6367,11 @@
     </row>
     <row r="40" spans="2:8" ht="15.75" customHeight="1">
       <c r="B40" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
@@ -6382,11 +6382,11 @@
     </row>
     <row r="41" spans="2:8" ht="15.75" customHeight="1">
       <c r="B41" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
@@ -6397,11 +6397,11 @@
     </row>
     <row r="42" spans="2:8" ht="15.75" customHeight="1">
       <c r="B42" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
@@ -6412,11 +6412,11 @@
     </row>
     <row r="43" spans="2:8" ht="15.75" customHeight="1">
       <c r="B43" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -6427,11 +6427,11 @@
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1">
       <c r="B44" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
@@ -6442,11 +6442,11 @@
     </row>
     <row r="45" spans="2:8" ht="15.75" customHeight="1">
       <c r="B45" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
@@ -6457,11 +6457,11 @@
     </row>
     <row r="46" spans="2:8" ht="15.75" customHeight="1">
       <c r="B46" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
@@ -6472,11 +6472,11 @@
     </row>
     <row r="47" spans="2:8" ht="15.75" customHeight="1">
       <c r="B47" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
@@ -6487,11 +6487,11 @@
     </row>
     <row r="48" spans="2:8" ht="15.75" customHeight="1">
       <c r="B48" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
@@ -6502,11 +6502,11 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="B49" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -6517,11 +6517,11 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="B50" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
@@ -6532,11 +6532,11 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="B51" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
@@ -6547,11 +6547,11 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="B52" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -6562,11 +6562,11 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="B53" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -6577,11 +6577,11 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="B54" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
@@ -6592,11 +6592,11 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="B55" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
@@ -6607,11 +6607,11 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="B56" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
@@ -6622,11 +6622,11 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="B57" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
@@ -6637,11 +6637,11 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="B58" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
@@ -6652,11 +6652,11 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="B59" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
@@ -6667,11 +6667,11 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="B60" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
@@ -6682,11 +6682,11 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="B61" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
@@ -6697,11 +6697,11 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="B62" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
@@ -6712,11 +6712,11 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
@@ -6728,11 +6728,11 @@
     <row r="64" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="50"/>
       <c r="B64" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -6743,11 +6743,11 @@
     </row>
     <row r="65" spans="2:8" ht="15.75" customHeight="1">
       <c r="B65" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
@@ -6758,11 +6758,11 @@
     </row>
     <row r="66" spans="2:8" ht="15.75" customHeight="1">
       <c r="B66" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C66" s="36"/>
       <c r="D66" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
@@ -6773,11 +6773,11 @@
     </row>
     <row r="67" spans="2:8" ht="15.75" customHeight="1">
       <c r="B67" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -6788,11 +6788,11 @@
     </row>
     <row r="68" spans="2:8" ht="15.75" customHeight="1">
       <c r="B68" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="36"/>
       <c r="D68" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
@@ -6803,11 +6803,11 @@
     </row>
     <row r="69" spans="2:8" ht="15.75" customHeight="1">
       <c r="B69" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
@@ -6818,11 +6818,11 @@
     </row>
     <row r="70" spans="2:8" ht="15.75" customHeight="1">
       <c r="B70" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
@@ -6833,11 +6833,11 @@
     </row>
     <row r="71" spans="2:8" ht="15.75" customHeight="1">
       <c r="B71" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
@@ -6848,11 +6848,11 @@
     </row>
     <row r="72" spans="2:8" ht="15.75" customHeight="1">
       <c r="B72" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -6863,11 +6863,11 @@
     </row>
     <row r="73" spans="2:8" ht="15.75" customHeight="1">
       <c r="B73" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
@@ -6878,11 +6878,11 @@
     </row>
     <row r="74" spans="2:8" ht="15.75" customHeight="1">
       <c r="B74" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
@@ -6893,11 +6893,11 @@
     </row>
     <row r="75" spans="2:8" ht="15.75" customHeight="1">
       <c r="B75" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -6908,11 +6908,11 @@
     </row>
     <row r="76" spans="2:8" ht="15.75" customHeight="1">
       <c r="B76" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
@@ -6923,11 +6923,11 @@
     </row>
     <row r="77" spans="2:8" ht="15.75" customHeight="1">
       <c r="B77" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
@@ -6938,11 +6938,11 @@
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" s="36"/>
       <c r="D78" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
@@ -6953,11 +6953,11 @@
     </row>
     <row r="79" spans="2:8" ht="15.75" customHeight="1">
       <c r="B79" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
@@ -6968,11 +6968,11 @@
     </row>
     <row r="80" spans="2:8" ht="15.75" customHeight="1">
       <c r="B80" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80" s="36"/>
       <c r="D80" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
@@ -6983,11 +6983,11 @@
     </row>
     <row r="81" spans="2:8" ht="15.75" customHeight="1">
       <c r="B81" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
@@ -6998,11 +6998,11 @@
     </row>
     <row r="82" spans="2:8" ht="15.75" customHeight="1">
       <c r="B82" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
@@ -7013,11 +7013,11 @@
     </row>
     <row r="83" spans="2:8" ht="15.75" customHeight="1">
       <c r="B83" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
@@ -7028,11 +7028,11 @@
     </row>
     <row r="84" spans="2:8" ht="15.75" customHeight="1">
       <c r="B84" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="36"/>
       <c r="D84" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
@@ -7043,11 +7043,11 @@
     </row>
     <row r="85" spans="2:8" ht="15.75" customHeight="1">
       <c r="B85" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
@@ -7058,11 +7058,11 @@
     </row>
     <row r="86" spans="2:8" ht="15.75" customHeight="1">
       <c r="B86" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86" s="36"/>
       <c r="D86" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
@@ -7073,11 +7073,11 @@
     </row>
     <row r="87" spans="2:8" ht="15.75" customHeight="1">
       <c r="B87" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
@@ -7088,11 +7088,11 @@
     </row>
     <row r="88" spans="2:8" ht="15.75" customHeight="1">
       <c r="B88" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -7103,11 +7103,11 @@
     </row>
     <row r="89" spans="2:8" ht="15.75" customHeight="1">
       <c r="B89" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
@@ -7118,11 +7118,11 @@
     </row>
     <row r="90" spans="2:8" ht="15.75" customHeight="1">
       <c r="B90" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C90" s="36"/>
       <c r="D90" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -7133,11 +7133,11 @@
     </row>
     <row r="91" spans="2:8" ht="15.75" customHeight="1">
       <c r="B91" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
@@ -7148,11 +7148,11 @@
     </row>
     <row r="92" spans="2:8" ht="15.75" customHeight="1">
       <c r="B92" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
@@ -7163,11 +7163,11 @@
     </row>
     <row r="93" spans="2:8" ht="15.75" customHeight="1">
       <c r="B93" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
@@ -7178,11 +7178,11 @@
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1">
       <c r="B94" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="36"/>
       <c r="D94" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
@@ -7193,11 +7193,11 @@
     </row>
     <row r="95" spans="2:8" ht="15.75" customHeight="1">
       <c r="B95" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
@@ -7208,11 +7208,11 @@
     </row>
     <row r="96" spans="2:8" ht="15.75" customHeight="1">
       <c r="B96" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C96" s="36"/>
       <c r="D96" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -7223,11 +7223,11 @@
     </row>
     <row r="97" spans="2:8" ht="15.75" customHeight="1">
       <c r="B97" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E97" s="33"/>
       <c r="F97" s="33"/>
@@ -7238,11 +7238,11 @@
     </row>
     <row r="98" spans="2:8" ht="15.75" customHeight="1">
       <c r="B98" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
@@ -7253,11 +7253,11 @@
     </row>
     <row r="99" spans="2:8" ht="15.75" customHeight="1">
       <c r="B99" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
@@ -7268,11 +7268,11 @@
     </row>
     <row r="100" spans="2:8" ht="15.75" customHeight="1">
       <c r="B100" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
@@ -7283,11 +7283,11 @@
     </row>
     <row r="101" spans="2:8" ht="15.75" customHeight="1">
       <c r="B101" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" s="33"/>
       <c r="F101" s="33"/>
@@ -7298,11 +7298,11 @@
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1">
       <c r="B102" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C102" s="36"/>
       <c r="D102" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
@@ -7313,11 +7313,11 @@
     </row>
     <row r="103" spans="2:8" ht="15.75" customHeight="1">
       <c r="B103" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
@@ -7328,11 +7328,11 @@
     </row>
     <row r="104" spans="2:8" ht="15.75" customHeight="1">
       <c r="B104" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="36"/>
@@ -7343,11 +7343,11 @@
     </row>
     <row r="105" spans="2:8" ht="15.75" customHeight="1">
       <c r="B105" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E105" s="33"/>
       <c r="F105" s="33"/>
@@ -7358,11 +7358,11 @@
     </row>
     <row r="106" spans="2:8" ht="15.75" customHeight="1">
       <c r="B106" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
@@ -7373,11 +7373,11 @@
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1">
       <c r="B107" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
@@ -7388,11 +7388,11 @@
     </row>
     <row r="108" spans="2:8" ht="15.75" customHeight="1">
       <c r="B108" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
@@ -7403,11 +7403,11 @@
     </row>
     <row r="109" spans="2:8" ht="15.75" customHeight="1">
       <c r="B109" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="33"/>
       <c r="D109" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E109" s="33"/>
       <c r="F109" s="33"/>
@@ -7418,11 +7418,11 @@
     </row>
     <row r="110" spans="2:8" ht="15.75" customHeight="1">
       <c r="B110" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
@@ -7433,11 +7433,11 @@
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1">
       <c r="B111" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E111" s="33"/>
       <c r="F111" s="33"/>
@@ -7448,11 +7448,11 @@
     </row>
     <row r="112" spans="2:8" ht="15.75" customHeight="1">
       <c r="B112" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
@@ -7463,11 +7463,11 @@
     </row>
     <row r="113" spans="2:8" ht="15.75" customHeight="1">
       <c r="B113" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
@@ -7478,11 +7478,11 @@
     </row>
     <row r="114" spans="2:8" ht="15.75" customHeight="1">
       <c r="B114" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
@@ -7493,11 +7493,11 @@
     </row>
     <row r="115" spans="2:8" ht="15.75" customHeight="1">
       <c r="B115" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
@@ -7508,11 +7508,11 @@
     </row>
     <row r="116" spans="2:8" ht="15.75" customHeight="1">
       <c r="B116" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C116" s="36"/>
       <c r="D116" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
@@ -7523,11 +7523,11 @@
     </row>
     <row r="117" spans="2:8" ht="15.75" customHeight="1">
       <c r="B117" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
@@ -7538,11 +7538,11 @@
     </row>
     <row r="118" spans="2:8" ht="15.75" customHeight="1">
       <c r="B118" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C118" s="36"/>
       <c r="D118" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
@@ -7553,11 +7553,11 @@
     </row>
     <row r="119" spans="2:8" ht="15.75" customHeight="1">
       <c r="B119" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
@@ -7568,11 +7568,11 @@
     </row>
     <row r="120" spans="2:8" ht="15.75" customHeight="1">
       <c r="B120" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C120" s="36"/>
       <c r="D120" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E120" s="36"/>
       <c r="F120" s="36"/>
@@ -7583,11 +7583,11 @@
     </row>
     <row r="121" spans="2:8" ht="15.75" customHeight="1">
       <c r="B121" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
@@ -7598,11 +7598,11 @@
     </row>
     <row r="122" spans="2:8" ht="15.75" customHeight="1">
       <c r="B122" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C122" s="36"/>
       <c r="D122" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
@@ -7613,11 +7613,11 @@
     </row>
     <row r="123" spans="2:8" ht="15.75" customHeight="1">
       <c r="B123" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" s="33"/>
       <c r="D123" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
@@ -7628,11 +7628,11 @@
     </row>
     <row r="124" spans="2:8" ht="15.75" customHeight="1">
       <c r="B124" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C124" s="36"/>
       <c r="D124" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E124" s="36"/>
       <c r="F124" s="36"/>
@@ -7643,11 +7643,11 @@
     </row>
     <row r="125" spans="2:8" ht="15.75" customHeight="1">
       <c r="B125" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C125" s="33"/>
       <c r="D125" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
@@ -7658,11 +7658,11 @@
     </row>
     <row r="126" spans="2:8" ht="15.75" customHeight="1">
       <c r="B126" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="36"/>
       <c r="D126" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E126" s="36"/>
       <c r="F126" s="36"/>
@@ -7673,11 +7673,11 @@
     </row>
     <row r="127" spans="2:8" ht="15.75" customHeight="1">
       <c r="B127" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
@@ -7688,11 +7688,11 @@
     </row>
     <row r="128" spans="2:8" ht="15.75" customHeight="1">
       <c r="B128" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C128" s="36"/>
       <c r="D128" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
@@ -7703,11 +7703,11 @@
     </row>
     <row r="129" spans="2:8" ht="15.75" customHeight="1">
       <c r="B129" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C129" s="33"/>
       <c r="D129" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E129" s="33"/>
       <c r="F129" s="33"/>
@@ -7718,11 +7718,11 @@
     </row>
     <row r="130" spans="2:8" ht="15.75" customHeight="1">
       <c r="B130" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C130" s="36"/>
       <c r="D130" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E130" s="36"/>
       <c r="F130" s="36"/>
@@ -7733,11 +7733,11 @@
     </row>
     <row r="131" spans="2:8" ht="15.75" customHeight="1">
       <c r="B131" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C131" s="33"/>
       <c r="D131" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
@@ -7748,11 +7748,11 @@
     </row>
     <row r="132" spans="2:8" ht="15.75" customHeight="1">
       <c r="B132" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C132" s="36"/>
       <c r="D132" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E132" s="36"/>
       <c r="F132" s="36"/>
@@ -7763,11 +7763,11 @@
     </row>
     <row r="133" spans="2:8" ht="15.75" customHeight="1">
       <c r="B133" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" s="33"/>
       <c r="D133" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E133" s="33"/>
       <c r="F133" s="33"/>
@@ -7778,11 +7778,11 @@
     </row>
     <row r="134" spans="2:8" ht="15.75" customHeight="1">
       <c r="B134" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C134" s="36"/>
       <c r="D134" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E134" s="36"/>
       <c r="F134" s="36"/>
@@ -7793,11 +7793,11 @@
     </row>
     <row r="135" spans="2:8" ht="15.75" customHeight="1">
       <c r="B135" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C135" s="33"/>
       <c r="D135" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
@@ -7808,11 +7808,11 @@
     </row>
     <row r="136" spans="2:8" ht="15.75" customHeight="1">
       <c r="B136" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C136" s="36"/>
       <c r="D136" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E136" s="36"/>
       <c r="F136" s="36"/>
@@ -7823,11 +7823,11 @@
     </row>
     <row r="137" spans="2:8" ht="15.75" customHeight="1">
       <c r="B137" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C137" s="33"/>
       <c r="D137" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
@@ -7838,11 +7838,11 @@
     </row>
     <row r="138" spans="2:8" ht="15.75" customHeight="1">
       <c r="B138" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C138" s="36"/>
       <c r="D138" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
@@ -7853,11 +7853,11 @@
     </row>
     <row r="139" spans="2:8" ht="15.75" customHeight="1">
       <c r="B139" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
@@ -7868,11 +7868,11 @@
     </row>
     <row r="140" spans="2:8" ht="15.75" customHeight="1">
       <c r="B140" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C140" s="36"/>
       <c r="D140" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
@@ -7883,11 +7883,11 @@
     </row>
     <row r="141" spans="2:8" ht="15.75" customHeight="1">
       <c r="B141" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
@@ -7898,11 +7898,11 @@
     </row>
     <row r="142" spans="2:8" ht="15.75" customHeight="1">
       <c r="B142" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C142" s="36"/>
       <c r="D142" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E142" s="36"/>
       <c r="F142" s="36"/>
@@ -7913,11 +7913,11 @@
     </row>
     <row r="143" spans="2:8" ht="15.75" customHeight="1">
       <c r="B143" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
@@ -7928,11 +7928,11 @@
     </row>
     <row r="144" spans="2:8" ht="15.75" customHeight="1">
       <c r="B144" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" s="36"/>
       <c r="D144" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="36"/>
@@ -7943,11 +7943,11 @@
     </row>
     <row r="145" spans="2:8" ht="15.75" customHeight="1">
       <c r="B145" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C145" s="33"/>
       <c r="D145" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
@@ -7958,11 +7958,11 @@
     </row>
     <row r="146" spans="2:8" ht="15.75" customHeight="1">
       <c r="B146" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C146" s="36"/>
       <c r="D146" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="36"/>
@@ -7973,11 +7973,11 @@
     </row>
     <row r="147" spans="2:8" ht="15.75" customHeight="1">
       <c r="B147" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" s="33"/>
       <c r="D147" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E147" s="33"/>
       <c r="F147" s="33"/>
@@ -7988,11 +7988,11 @@
     </row>
     <row r="148" spans="2:8" ht="15.75" customHeight="1">
       <c r="B148" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C148" s="36"/>
       <c r="D148" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="36"/>
@@ -8003,11 +8003,11 @@
     </row>
     <row r="149" spans="2:8" ht="15.75" customHeight="1">
       <c r="B149" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C149" s="33"/>
       <c r="D149" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E149" s="33"/>
       <c r="F149" s="33"/>
@@ -8018,11 +8018,11 @@
     </row>
     <row r="150" spans="2:8" ht="15.75" customHeight="1">
       <c r="B150" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" s="36"/>
       <c r="D150" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
@@ -8033,11 +8033,11 @@
     </row>
     <row r="151" spans="2:8" ht="15.75" customHeight="1">
       <c r="B151" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C151" s="33"/>
       <c r="D151" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E151" s="33"/>
       <c r="F151" s="33"/>
@@ -8048,11 +8048,11 @@
     </row>
     <row r="152" spans="2:8" ht="15.75" customHeight="1">
       <c r="B152" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C152" s="36"/>
       <c r="D152" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="36"/>
@@ -8063,11 +8063,11 @@
     </row>
     <row r="153" spans="2:8" ht="15.75" customHeight="1">
       <c r="B153" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C153" s="33"/>
       <c r="D153" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33"/>
@@ -8078,11 +8078,11 @@
     </row>
     <row r="154" spans="2:8" ht="15.75" customHeight="1">
       <c r="B154" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C154" s="36"/>
       <c r="D154" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="36"/>
@@ -8093,11 +8093,11 @@
     </row>
     <row r="155" spans="2:8" ht="15.75" customHeight="1">
       <c r="B155" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C155" s="33"/>
       <c r="D155" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E155" s="33"/>
       <c r="F155" s="33"/>
@@ -8108,11 +8108,11 @@
     </row>
     <row r="156" spans="2:8" ht="15.75" customHeight="1">
       <c r="B156" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C156" s="36"/>
       <c r="D156" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="36"/>
@@ -8123,11 +8123,11 @@
     </row>
     <row r="157" spans="2:8" ht="15.75" customHeight="1">
       <c r="B157" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C157" s="33"/>
       <c r="D157" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="33"/>
@@ -8138,11 +8138,11 @@
     </row>
     <row r="158" spans="2:8" ht="15.75" customHeight="1">
       <c r="B158" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C158" s="36"/>
       <c r="D158" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="36"/>
@@ -8153,11 +8153,11 @@
     </row>
     <row r="159" spans="2:8" ht="15.75" customHeight="1">
       <c r="B159" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C159" s="33"/>
       <c r="D159" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E159" s="33"/>
       <c r="F159" s="33"/>
@@ -8168,11 +8168,11 @@
     </row>
     <row r="160" spans="2:8" ht="15.75" customHeight="1">
       <c r="B160" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C160" s="36"/>
       <c r="D160" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="36"/>
@@ -8183,11 +8183,11 @@
     </row>
     <row r="161" spans="2:8" ht="15.75" customHeight="1">
       <c r="B161" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C161" s="33"/>
       <c r="D161" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E161" s="33"/>
       <c r="F161" s="33"/>
@@ -8198,11 +8198,11 @@
     </row>
     <row r="162" spans="2:8" ht="15.75" customHeight="1">
       <c r="B162" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C162" s="36"/>
       <c r="D162" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="36"/>
@@ -8213,11 +8213,11 @@
     </row>
     <row r="163" spans="2:8" ht="15.75" customHeight="1">
       <c r="B163" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C163" s="33"/>
       <c r="D163" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="33"/>
@@ -8228,11 +8228,11 @@
     </row>
     <row r="164" spans="2:8" ht="15.75" customHeight="1">
       <c r="B164" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C164" s="36"/>
       <c r="D164" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="36"/>
@@ -8243,11 +8243,11 @@
     </row>
     <row r="165" spans="2:8" ht="15.75" customHeight="1">
       <c r="B165" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C165" s="33"/>
       <c r="D165" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E165" s="33"/>
       <c r="F165" s="33"/>
@@ -8258,11 +8258,11 @@
     </row>
     <row r="166" spans="2:8" ht="15.75" customHeight="1">
       <c r="B166" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C166" s="36"/>
       <c r="D166" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="36"/>
@@ -8273,11 +8273,11 @@
     </row>
     <row r="167" spans="2:8" ht="15.75" customHeight="1">
       <c r="B167" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C167" s="33"/>
       <c r="D167" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="33"/>
@@ -8288,11 +8288,11 @@
     </row>
     <row r="168" spans="2:8" ht="15.75" customHeight="1">
       <c r="B168" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C168" s="36"/>
       <c r="D168" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="36"/>
@@ -8303,11 +8303,11 @@
     </row>
     <row r="169" spans="2:8" ht="15.75" customHeight="1">
       <c r="B169" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E169" s="33"/>
       <c r="F169" s="33"/>
@@ -8318,11 +8318,11 @@
     </row>
     <row r="170" spans="2:8" ht="15.75" customHeight="1">
       <c r="B170" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C170" s="36"/>
       <c r="D170" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E170" s="36"/>
       <c r="F170" s="36"/>
@@ -8333,11 +8333,11 @@
     </row>
     <row r="171" spans="2:8" ht="15.75" customHeight="1">
       <c r="B171" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C171" s="33"/>
       <c r="D171" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E171" s="33"/>
       <c r="F171" s="33"/>
@@ -8348,11 +8348,11 @@
     </row>
     <row r="172" spans="2:8" ht="15.75" customHeight="1">
       <c r="B172" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C172" s="36"/>
       <c r="D172" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E172" s="36"/>
       <c r="F172" s="36"/>
@@ -8363,11 +8363,11 @@
     </row>
     <row r="173" spans="2:8" ht="15.75" customHeight="1">
       <c r="B173" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C173" s="33"/>
       <c r="D173" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E173" s="33"/>
       <c r="F173" s="33"/>
@@ -8378,11 +8378,11 @@
     </row>
     <row r="174" spans="2:8" ht="15.75" customHeight="1">
       <c r="B174" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C174" s="36"/>
       <c r="D174" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E174" s="36"/>
       <c r="F174" s="36"/>
@@ -8393,11 +8393,11 @@
     </row>
     <row r="175" spans="2:8" ht="15.75" customHeight="1">
       <c r="B175" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C175" s="33"/>
       <c r="D175" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
@@ -8408,11 +8408,11 @@
     </row>
     <row r="176" spans="2:8" ht="15.75" customHeight="1">
       <c r="B176" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C176" s="36"/>
       <c r="D176" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E176" s="36"/>
       <c r="F176" s="36"/>
@@ -8423,11 +8423,11 @@
     </row>
     <row r="177" spans="2:8" ht="15.75" customHeight="1">
       <c r="B177" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C177" s="33"/>
       <c r="D177" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E177" s="33"/>
       <c r="F177" s="33"/>
@@ -8438,11 +8438,11 @@
     </row>
     <row r="178" spans="2:8" ht="15.75" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C178" s="36"/>
       <c r="D178" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E178" s="36"/>
       <c r="F178" s="36"/>
@@ -8453,11 +8453,11 @@
     </row>
     <row r="179" spans="2:8" ht="15.75" customHeight="1">
       <c r="B179" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
@@ -8468,11 +8468,11 @@
     </row>
     <row r="180" spans="2:8" ht="15.75" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C180" s="36"/>
       <c r="D180" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E180" s="36"/>
       <c r="F180" s="36"/>
@@ -8483,11 +8483,11 @@
     </row>
     <row r="181" spans="2:8" ht="15.75" customHeight="1">
       <c r="B181" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="33"/>
@@ -8498,11 +8498,11 @@
     </row>
     <row r="182" spans="2:8" ht="15.75" customHeight="1">
       <c r="B182" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C182" s="36"/>
       <c r="D182" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="36"/>
@@ -8513,11 +8513,11 @@
     </row>
     <row r="183" spans="2:8" ht="15.75" customHeight="1">
       <c r="B183" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C183" s="33"/>
       <c r="D183" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E183" s="33"/>
       <c r="F183" s="33"/>
@@ -8528,11 +8528,11 @@
     </row>
     <row r="184" spans="2:8" ht="15.75" customHeight="1">
       <c r="B184" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C184" s="36"/>
       <c r="D184" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E184" s="36"/>
       <c r="F184" s="36"/>
@@ -8543,11 +8543,11 @@
     </row>
     <row r="185" spans="2:8" ht="15.75" customHeight="1">
       <c r="B185" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C185" s="33"/>
       <c r="D185" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E185" s="33"/>
       <c r="F185" s="33"/>
@@ -8558,11 +8558,11 @@
     </row>
     <row r="186" spans="2:8" ht="15.75" customHeight="1">
       <c r="B186" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C186" s="36"/>
       <c r="D186" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E186" s="36"/>
       <c r="F186" s="36"/>
@@ -8573,11 +8573,11 @@
     </row>
     <row r="187" spans="2:8" ht="15.75" customHeight="1">
       <c r="B187" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C187" s="33"/>
       <c r="D187" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
@@ -8588,11 +8588,11 @@
     </row>
     <row r="188" spans="2:8" ht="15.75" customHeight="1">
       <c r="B188" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C188" s="36"/>
       <c r="D188" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E188" s="36"/>
       <c r="F188" s="36"/>
@@ -8603,11 +8603,11 @@
     </row>
     <row r="189" spans="2:8" ht="15.75" customHeight="1">
       <c r="B189" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C189" s="33"/>
       <c r="D189" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
@@ -8618,11 +8618,11 @@
     </row>
     <row r="190" spans="2:8" ht="15.75" customHeight="1">
       <c r="B190" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C190" s="36"/>
       <c r="D190" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E190" s="36"/>
       <c r="F190" s="36"/>
@@ -8633,11 +8633,11 @@
     </row>
     <row r="191" spans="2:8" ht="15.75" customHeight="1">
       <c r="B191" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E191" s="33"/>
       <c r="F191" s="33"/>
@@ -8648,11 +8648,11 @@
     </row>
     <row r="192" spans="2:8" ht="15.75" customHeight="1">
       <c r="B192" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C192" s="36"/>
       <c r="D192" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E192" s="36"/>
       <c r="F192" s="36"/>
@@ -8663,11 +8663,11 @@
     </row>
     <row r="193" spans="2:8" ht="15.75" customHeight="1">
       <c r="B193" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C193" s="33"/>
       <c r="D193" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E193" s="33"/>
       <c r="F193" s="33"/>
@@ -8678,11 +8678,11 @@
     </row>
     <row r="194" spans="2:8" ht="15.75" customHeight="1">
       <c r="B194" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C194" s="36"/>
       <c r="D194" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E194" s="36"/>
       <c r="F194" s="36"/>
@@ -8693,11 +8693,11 @@
     </row>
     <row r="195" spans="2:8" ht="15.75" customHeight="1">
       <c r="B195" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C195" s="33"/>
       <c r="D195" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E195" s="33"/>
       <c r="F195" s="33"/>
@@ -8708,11 +8708,11 @@
     </row>
     <row r="196" spans="2:8" ht="15.75" customHeight="1">
       <c r="B196" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C196" s="36"/>
       <c r="D196" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E196" s="36"/>
       <c r="F196" s="36"/>
@@ -8723,11 +8723,11 @@
     </row>
     <row r="197" spans="2:8" ht="15.75" customHeight="1">
       <c r="B197" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C197" s="33"/>
       <c r="D197" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E197" s="33"/>
       <c r="F197" s="33"/>
@@ -8738,11 +8738,11 @@
     </row>
     <row r="198" spans="2:8" ht="15.75" customHeight="1">
       <c r="B198" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C198" s="36"/>
       <c r="D198" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E198" s="36"/>
       <c r="F198" s="36"/>
@@ -8753,11 +8753,11 @@
     </row>
     <row r="199" spans="2:8" ht="15.75" customHeight="1">
       <c r="B199" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C199" s="33"/>
       <c r="D199" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E199" s="33"/>
       <c r="F199" s="33"/>
@@ -8768,11 +8768,11 @@
     </row>
     <row r="200" spans="2:8" ht="15.75" customHeight="1">
       <c r="B200" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C200" s="36"/>
       <c r="D200" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E200" s="36"/>
       <c r="F200" s="36"/>
@@ -8783,11 +8783,11 @@
     </row>
     <row r="201" spans="2:8" ht="15.75" customHeight="1">
       <c r="B201" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C201" s="33"/>
       <c r="D201" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E201" s="33"/>
       <c r="F201" s="33"/>
@@ -8798,11 +8798,11 @@
     </row>
     <row r="202" spans="2:8" ht="15.75" customHeight="1">
       <c r="B202" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C202" s="36"/>
       <c r="D202" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E202" s="36"/>
       <c r="F202" s="36"/>
@@ -8813,11 +8813,11 @@
     </row>
     <row r="203" spans="2:8" ht="15.75" customHeight="1">
       <c r="B203" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C203" s="33"/>
       <c r="D203" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E203" s="33"/>
       <c r="F203" s="33"/>
@@ -8828,11 +8828,11 @@
     </row>
     <row r="204" spans="2:8" ht="15.75" customHeight="1">
       <c r="B204" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C204" s="36"/>
       <c r="D204" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E204" s="36"/>
       <c r="F204" s="36"/>
@@ -8843,11 +8843,11 @@
     </row>
     <row r="205" spans="2:8" ht="15.75" customHeight="1">
       <c r="B205" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C205" s="33"/>
       <c r="D205" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E205" s="33"/>
       <c r="F205" s="33"/>
@@ -8858,11 +8858,11 @@
     </row>
     <row r="206" spans="2:8" ht="15.75" customHeight="1">
       <c r="B206" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C206" s="36"/>
       <c r="D206" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E206" s="36"/>
       <c r="F206" s="36"/>
@@ -8873,11 +8873,11 @@
     </row>
     <row r="207" spans="2:8" ht="15.75" customHeight="1">
       <c r="B207" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" s="33"/>
       <c r="D207" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E207" s="33"/>
       <c r="F207" s="33"/>
@@ -8888,11 +8888,11 @@
     </row>
     <row r="208" spans="2:8" ht="15.75" customHeight="1">
       <c r="B208" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C208" s="36"/>
       <c r="D208" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E208" s="36"/>
       <c r="F208" s="36"/>
@@ -8903,11 +8903,11 @@
     </row>
     <row r="209" spans="2:8" ht="15.75" customHeight="1">
       <c r="B209" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C209" s="33"/>
       <c r="D209" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33"/>
@@ -8918,11 +8918,11 @@
     </row>
     <row r="210" spans="2:8" ht="15.75" customHeight="1">
       <c r="B210" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C210" s="36"/>
       <c r="D210" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E210" s="36"/>
       <c r="F210" s="36"/>
@@ -8933,11 +8933,11 @@
     </row>
     <row r="211" spans="2:8" ht="15.75" customHeight="1">
       <c r="B211" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C211" s="33"/>
       <c r="D211" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E211" s="33"/>
       <c r="F211" s="33"/>
@@ -8948,11 +8948,11 @@
     </row>
     <row r="212" spans="2:8" ht="15.75" customHeight="1">
       <c r="B212" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C212" s="36"/>
       <c r="D212" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E212" s="36"/>
       <c r="F212" s="36"/>
@@ -8963,11 +8963,11 @@
     </row>
     <row r="213" spans="2:8" ht="15.75" customHeight="1">
       <c r="B213" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C213" s="33"/>
       <c r="D213" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E213" s="33"/>
       <c r="F213" s="33"/>
@@ -8978,11 +8978,11 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" customHeight="1">
       <c r="B214" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C214" s="36"/>
       <c r="D214" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E214" s="36"/>
       <c r="F214" s="36"/>
@@ -8993,11 +8993,11 @@
     </row>
     <row r="215" spans="2:8" ht="15.75" customHeight="1">
       <c r="B215" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C215" s="33"/>
       <c r="D215" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E215" s="33"/>
       <c r="F215" s="33"/>
@@ -9008,11 +9008,11 @@
     </row>
     <row r="216" spans="2:8" ht="15.75" customHeight="1">
       <c r="B216" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C216" s="36"/>
       <c r="D216" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E216" s="36"/>
       <c r="F216" s="36"/>
@@ -9023,11 +9023,11 @@
     </row>
     <row r="217" spans="2:8" ht="15.75" customHeight="1">
       <c r="B217" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C217" s="33"/>
       <c r="D217" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E217" s="33"/>
       <c r="F217" s="33"/>
@@ -9038,11 +9038,11 @@
     </row>
     <row r="218" spans="2:8" ht="15.75" customHeight="1">
       <c r="B218" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C218" s="36"/>
       <c r="D218" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E218" s="36"/>
       <c r="F218" s="36"/>
@@ -9053,11 +9053,11 @@
     </row>
     <row r="219" spans="2:8" ht="15.75" customHeight="1">
       <c r="B219" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C219" s="33"/>
       <c r="D219" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E219" s="33"/>
       <c r="F219" s="33"/>
@@ -9068,11 +9068,11 @@
     </row>
     <row r="220" spans="2:8" ht="15.75" customHeight="1">
       <c r="B220" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C220" s="36"/>
       <c r="D220" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E220" s="36"/>
       <c r="F220" s="36"/>
@@ -9083,11 +9083,11 @@
     </row>
     <row r="221" spans="2:8" ht="15.75" customHeight="1">
       <c r="B221" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C221" s="33"/>
       <c r="D221" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E221" s="33"/>
       <c r="F221" s="33"/>
@@ -9098,11 +9098,11 @@
     </row>
     <row r="222" spans="2:8" ht="15.75" customHeight="1">
       <c r="B222" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C222" s="36"/>
       <c r="D222" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E222" s="36"/>
       <c r="F222" s="36"/>
@@ -9113,11 +9113,11 @@
     </row>
     <row r="223" spans="2:8" ht="15.75" customHeight="1">
       <c r="B223" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C223" s="33"/>
       <c r="D223" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E223" s="33"/>
       <c r="F223" s="33"/>
@@ -9128,11 +9128,11 @@
     </row>
     <row r="224" spans="2:8" ht="15.75" customHeight="1">
       <c r="B224" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C224" s="36"/>
       <c r="D224" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E224" s="36"/>
       <c r="F224" s="36"/>
@@ -9143,11 +9143,11 @@
     </row>
     <row r="225" spans="2:8" ht="15.75" customHeight="1">
       <c r="B225" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C225" s="33"/>
       <c r="D225" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E225" s="33"/>
       <c r="F225" s="33"/>
@@ -9158,11 +9158,11 @@
     </row>
     <row r="226" spans="2:8" ht="15.75" customHeight="1">
       <c r="B226" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C226" s="36"/>
       <c r="D226" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E226" s="36"/>
       <c r="F226" s="36"/>
@@ -9173,11 +9173,11 @@
     </row>
     <row r="227" spans="2:8" ht="15.75" customHeight="1">
       <c r="B227" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C227" s="33"/>
       <c r="D227" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E227" s="33"/>
       <c r="F227" s="33"/>
@@ -9188,11 +9188,11 @@
     </row>
     <row r="228" spans="2:8" ht="15.75" customHeight="1">
       <c r="B228" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C228" s="36"/>
       <c r="D228" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E228" s="36"/>
       <c r="F228" s="36"/>
@@ -9203,11 +9203,11 @@
     </row>
     <row r="229" spans="2:8" ht="15.75" customHeight="1">
       <c r="B229" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C229" s="33"/>
       <c r="D229" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E229" s="33"/>
       <c r="F229" s="33"/>
@@ -9218,11 +9218,11 @@
     </row>
     <row r="230" spans="2:8" ht="15.75" customHeight="1">
       <c r="B230" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C230" s="36"/>
       <c r="D230" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E230" s="36"/>
       <c r="F230" s="36"/>
@@ -9233,11 +9233,11 @@
     </row>
     <row r="231" spans="2:8" ht="15.75" customHeight="1">
       <c r="B231" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C231" s="33"/>
       <c r="D231" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E231" s="33"/>
       <c r="F231" s="33"/>
@@ -9248,11 +9248,11 @@
     </row>
     <row r="232" spans="2:8" ht="15.75" customHeight="1">
       <c r="B232" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C232" s="36"/>
       <c r="D232" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E232" s="36"/>
       <c r="F232" s="36"/>
@@ -9263,11 +9263,11 @@
     </row>
     <row r="233" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="B233" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C233" s="40"/>
       <c r="D233" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E233" s="40"/>
       <c r="F233" s="40"/>
@@ -9302,109 +9302,109 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="12.75" customHeight="1">
@@ -9418,7 +9418,7 @@
     <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="11" spans="2:9" ht="18">
       <c r="B11" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -9426,26 +9426,26 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="11">
         <v>1055.55</v>
@@ -9453,10 +9453,10 @@
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="24">
         <v>3.6</v>
@@ -9464,10 +9464,10 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D17" s="11">
         <v>1000</v>
@@ -9475,10 +9475,10 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="24">
         <v>1000</v>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11">
         <v>1.05555</v>
@@ -9497,10 +9497,10 @@
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24">
         <v>4.1868000000000002E-2</v>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="11">
         <v>41.868000000000002</v>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="24">
         <v>3.5999999999999999E-3</v>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="11">
         <v>1000000</v>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="D24" s="24">
         <v>1000</v>
@@ -9552,10 +9552,10 @@
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="11">
         <v>0.15384600000000001</v>
@@ -9563,10 +9563,10 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>78</v>
       </c>
       <c r="D26" s="24">
         <v>-1E-3</v>
@@ -9574,10 +9574,10 @@
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="11">
         <v>1000</v>
@@ -9585,10 +9585,10 @@
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="24">
         <v>37.681199999999997</v>
@@ -9596,10 +9596,10 @@
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11">
         <v>2299</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="24">
         <v>2.7777769999999999</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="11">
         <f>1/3.6</f>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="24">
         <v>1</v>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="14">
         <v>4.5</v>
@@ -9660,7 +9660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8BD73-0DF8-4F72-B0F0-D4FB13B1EA60}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -9675,28 +9675,28 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="13.5" thickBot="1">
       <c r="B4" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>383</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>384</v>
       </c>
       <c r="D4" s="48">
         <v>1</v>
@@ -9708,6 +9708,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -9851,35 +9866,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EE394D-E8DA-413E-B5EF-6DF7212C84CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9901,9 +9891,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EE394D-E8DA-413E-B5EF-6DF7212C84CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>